--- a/database/industries/darou/dekapsul/cost/yearly.xlsx
+++ b/database/industries/darou/dekapsul/cost/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\darou\dekapsul\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dekapsul\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3866F584-E675-497E-941E-00F21DAE6C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دکپسول-تولید ژلاتین کپسول ایران</t>
@@ -93,7 +94,7 @@
     <t>مقدار موجودی اول دوره</t>
   </si>
   <si>
-    <t>مواد اولیه و بسته بندی  - عدد</t>
+    <t>مواد اولیه و بسته بندی - عدد</t>
   </si>
   <si>
     <t>عدد</t>
@@ -207,7 +208,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,7 +378,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -389,7 +390,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -436,6 +437,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -471,6 +489,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -622,7 +657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/darou/dekapsul/cost/yearly.xlsx
+++ b/database/industries/darou/dekapsul/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dekapsul\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dekapsul\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3866F584-E675-497E-941E-00F21DAE6C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05C05CA-EBEC-4510-9BF5-2F261913E716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="61">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -662,12 +662,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -677,7 +677,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,7 +689,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -711,7 +711,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -735,7 +735,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -745,7 +745,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -767,7 +767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -777,105 +777,105 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>136450</v>
+        <v>167690</v>
       </c>
       <c r="F10" s="9">
-        <v>167690</v>
+        <v>234662</v>
       </c>
       <c r="G10" s="9">
-        <v>234662</v>
+        <v>422193</v>
       </c>
       <c r="H10" s="9">
-        <v>422193</v>
+        <v>1155972</v>
       </c>
       <c r="I10" s="9">
-        <v>1155972</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1346917</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>70991</v>
+        <v>81312</v>
       </c>
       <c r="F11" s="11">
-        <v>81312</v>
+        <v>121146</v>
       </c>
       <c r="G11" s="11">
-        <v>121146</v>
+        <v>153444</v>
       </c>
       <c r="H11" s="11">
-        <v>153444</v>
+        <v>202243</v>
       </c>
       <c r="I11" s="11">
-        <v>202243</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>286808</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>112324</v>
+        <v>123145</v>
       </c>
       <c r="F12" s="9">
-        <v>123145</v>
+        <v>160571</v>
       </c>
       <c r="G12" s="9">
-        <v>160571</v>
+        <v>210895</v>
       </c>
       <c r="H12" s="9">
-        <v>210895</v>
+        <v>321271</v>
       </c>
       <c r="I12" s="9">
-        <v>321271</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>471030</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>319765</v>
+        <v>372147</v>
       </c>
       <c r="F13" s="13">
-        <v>372147</v>
+        <v>516379</v>
       </c>
       <c r="G13" s="13">
-        <v>516379</v>
+        <v>786532</v>
       </c>
       <c r="H13" s="13">
-        <v>786532</v>
+        <v>1679486</v>
       </c>
       <c r="I13" s="13">
-        <v>1679486</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2104755</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>-16538</v>
+        <v>-9573</v>
       </c>
       <c r="F14" s="9">
-        <v>-9573</v>
+        <v>0</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -887,29 +887,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>303227</v>
+        <v>362574</v>
       </c>
       <c r="F15" s="13">
-        <v>362574</v>
+        <v>516379</v>
       </c>
       <c r="G15" s="13">
-        <v>516379</v>
+        <v>786532</v>
       </c>
       <c r="H15" s="13">
-        <v>786532</v>
+        <v>1679486</v>
       </c>
       <c r="I15" s="13">
-        <v>1679486</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2104755</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -919,129 +919,129 @@
         <v>0</v>
       </c>
       <c r="F16" s="9">
-        <v>0</v>
+        <v>-5514</v>
       </c>
       <c r="G16" s="9">
-        <v>-5514</v>
+        <v>5730</v>
       </c>
       <c r="H16" s="9">
-        <v>5730</v>
+        <v>-862</v>
       </c>
       <c r="I16" s="9">
-        <v>-862</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>-92</v>
+        <v>-40</v>
       </c>
       <c r="F17" s="11">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="G17" s="11">
-        <v>0</v>
+        <v>-3498</v>
       </c>
       <c r="H17" s="11">
-        <v>-3498</v>
+        <v>-8310</v>
       </c>
       <c r="I17" s="11">
-        <v>-8310</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-8956</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>303135</v>
+        <v>362534</v>
       </c>
       <c r="F18" s="15">
-        <v>362534</v>
+        <v>510865</v>
       </c>
       <c r="G18" s="15">
-        <v>510865</v>
+        <v>788764</v>
       </c>
       <c r="H18" s="15">
-        <v>788764</v>
+        <v>1670314</v>
       </c>
       <c r="I18" s="15">
-        <v>1670314</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2096661</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>11860</v>
+        <v>23983</v>
       </c>
       <c r="F19" s="11">
-        <v>23983</v>
+        <v>25148</v>
       </c>
       <c r="G19" s="11">
-        <v>25148</v>
+        <v>20139</v>
       </c>
       <c r="H19" s="11">
-        <v>20139</v>
+        <v>35447</v>
       </c>
       <c r="I19" s="11">
-        <v>35447</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>85352</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-23983</v>
+        <v>-25148</v>
       </c>
       <c r="F20" s="9">
-        <v>-25148</v>
+        <v>-20139</v>
       </c>
       <c r="G20" s="9">
-        <v>-20139</v>
+        <v>-35447</v>
       </c>
       <c r="H20" s="9">
-        <v>-35447</v>
+        <v>-85352</v>
       </c>
       <c r="I20" s="9">
-        <v>-85352</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-111912</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>291012</v>
+        <v>361369</v>
       </c>
       <c r="F21" s="13">
-        <v>361369</v>
+        <v>515874</v>
       </c>
       <c r="G21" s="13">
-        <v>515874</v>
+        <v>773456</v>
       </c>
       <c r="H21" s="13">
-        <v>773456</v>
+        <v>1620409</v>
       </c>
       <c r="I21" s="13">
-        <v>1620409</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2070101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1063,29 +1063,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>291012</v>
+        <v>361369</v>
       </c>
       <c r="F23" s="13">
-        <v>361369</v>
+        <v>515874</v>
       </c>
       <c r="G23" s="13">
-        <v>515874</v>
+        <v>773456</v>
       </c>
       <c r="H23" s="13">
-        <v>773456</v>
+        <v>1620409</v>
       </c>
       <c r="I23" s="13">
-        <v>1620409</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2070101</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1095,7 +1095,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1105,7 +1105,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1115,7 +1115,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1147,7 +1147,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1164,14 +1164,14 @@
       <c r="G29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>26</v>
+      <c r="H29" s="9">
+        <v>63543</v>
       </c>
       <c r="I29" s="9">
-        <v>63543</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35456</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1179,23 +1179,23 @@
         <v>28</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
+      <c r="E30" s="11">
+        <v>442716400</v>
       </c>
       <c r="F30" s="11">
-        <v>442716400</v>
+        <v>81765000</v>
       </c>
       <c r="G30" s="11">
-        <v>81765000</v>
+        <v>292785500</v>
       </c>
       <c r="H30" s="11">
-        <v>292785500</v>
+        <v>354312400</v>
       </c>
       <c r="I30" s="11">
-        <v>354312400</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>330716300</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>29</v>
       </c>
@@ -1203,23 +1203,23 @@
         <v>30</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>26</v>
+      <c r="E31" s="9">
+        <v>56181</v>
       </c>
       <c r="F31" s="9">
-        <v>56181</v>
+        <v>72975</v>
       </c>
       <c r="G31" s="9">
-        <v>72975</v>
+        <v>53063</v>
       </c>
       <c r="H31" s="9">
-        <v>53063</v>
+        <v>6951</v>
       </c>
       <c r="I31" s="9">
-        <v>6951</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26330</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>31</v>
       </c>
@@ -1227,45 +1227,45 @@
         <v>28</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>26</v>
+      <c r="E32" s="11">
+        <v>39284295</v>
       </c>
       <c r="F32" s="11">
-        <v>39284295</v>
+        <v>29957775</v>
       </c>
       <c r="G32" s="11">
-        <v>29957775</v>
+        <v>24310161</v>
       </c>
       <c r="H32" s="11">
-        <v>24310161</v>
+        <v>15980097</v>
       </c>
       <c r="I32" s="11">
-        <v>15980097</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19411637</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15">
-        <v>0</v>
+        <v>482056876</v>
       </c>
       <c r="F33" s="15">
-        <v>482056876</v>
+        <v>111795750</v>
       </c>
       <c r="G33" s="15">
-        <v>111795750</v>
+        <v>317148724</v>
       </c>
       <c r="H33" s="15">
-        <v>317148724</v>
+        <v>370362991</v>
       </c>
       <c r="I33" s="15">
-        <v>370362991</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>350189723</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1275,7 +1275,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1285,7 +1285,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1295,7 +1295,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>32</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1327,7 +1327,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>24</v>
       </c>
@@ -1344,14 +1344,14 @@
       <c r="G39" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>26</v>
+      <c r="H39" s="9">
+        <v>153744</v>
       </c>
       <c r="I39" s="9">
-        <v>153744</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>245424</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>27</v>
       </c>
@@ -1359,23 +1359,23 @@
         <v>28</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
-        <v>26</v>
+      <c r="E40" s="11">
+        <v>122950000</v>
       </c>
       <c r="F40" s="11">
-        <v>122950000</v>
+        <v>774240000</v>
       </c>
       <c r="G40" s="11">
-        <v>774240000</v>
+        <v>642006000</v>
       </c>
       <c r="H40" s="11">
-        <v>642006000</v>
+        <v>534533181</v>
       </c>
       <c r="I40" s="11">
-        <v>534533181</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>586448799</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>29</v>
       </c>
@@ -1383,23 +1383,23 @@
         <v>30</v>
       </c>
       <c r="D41" s="9"/>
-      <c r="E41" s="9" t="s">
-        <v>26</v>
+      <c r="E41" s="9">
+        <v>196006</v>
       </c>
       <c r="F41" s="9">
-        <v>196006</v>
+        <v>186407</v>
       </c>
       <c r="G41" s="9">
-        <v>186407</v>
+        <v>222652</v>
       </c>
       <c r="H41" s="9">
-        <v>222652</v>
+        <v>41147</v>
       </c>
       <c r="I41" s="9">
-        <v>41147</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>31</v>
       </c>
@@ -1407,45 +1407,45 @@
         <v>28</v>
       </c>
       <c r="D42" s="11"/>
-      <c r="E42" s="11" t="s">
-        <v>26</v>
+      <c r="E42" s="11">
+        <v>10541000</v>
       </c>
       <c r="F42" s="11">
-        <v>10541000</v>
+        <v>18196700</v>
       </c>
       <c r="G42" s="11">
-        <v>18196700</v>
+        <v>16650730</v>
       </c>
       <c r="H42" s="11">
-        <v>16650730</v>
+        <v>29338488</v>
       </c>
       <c r="I42" s="11">
-        <v>29338488</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35399412</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15">
-        <v>0</v>
+        <v>133687006</v>
       </c>
       <c r="F43" s="15">
-        <v>133687006</v>
+        <v>792623107</v>
       </c>
       <c r="G43" s="15">
-        <v>792623107</v>
+        <v>658879382</v>
       </c>
       <c r="H43" s="15">
-        <v>658879382</v>
+        <v>564066560</v>
       </c>
       <c r="I43" s="15">
-        <v>564066560</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>622096919</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1455,7 +1455,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1465,7 +1465,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1475,7 +1475,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>33</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1507,7 +1507,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>24</v>
       </c>
@@ -1524,14 +1524,14 @@
       <c r="G49" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H49" s="9" t="s">
-        <v>26</v>
+      <c r="H49" s="9">
+        <v>182966</v>
       </c>
       <c r="I49" s="9">
-        <v>182966</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>180097</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>27</v>
       </c>
@@ -1539,23 +1539,23 @@
         <v>28</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>26</v>
+      <c r="E50" s="11">
+        <v>483901400</v>
       </c>
       <c r="F50" s="11">
-        <v>483901400</v>
+        <v>563319500</v>
       </c>
       <c r="G50" s="11">
-        <v>563319500</v>
+        <v>572679100</v>
       </c>
       <c r="H50" s="11">
-        <v>572679100</v>
+        <v>558129281</v>
       </c>
       <c r="I50" s="11">
-        <v>558129281</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>559884505</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>29</v>
       </c>
@@ -1563,23 +1563,23 @@
         <v>30</v>
       </c>
       <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
-        <v>26</v>
+      <c r="E51" s="9">
+        <v>179212</v>
       </c>
       <c r="F51" s="9">
-        <v>179212</v>
+        <v>206319</v>
       </c>
       <c r="G51" s="9">
-        <v>206319</v>
+        <v>205221</v>
       </c>
       <c r="H51" s="9">
-        <v>205221</v>
+        <v>21768</v>
       </c>
       <c r="I51" s="9">
-        <v>21768</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20522</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>31</v>
       </c>
@@ -1587,45 +1587,45 @@
         <v>28</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>26</v>
+      <c r="E52" s="11">
+        <v>19867520</v>
       </c>
       <c r="F52" s="11">
-        <v>19867520</v>
+        <v>23844314</v>
       </c>
       <c r="G52" s="11">
-        <v>23844314</v>
+        <v>24877194</v>
       </c>
       <c r="H52" s="11">
-        <v>24877194</v>
+        <v>25906948</v>
       </c>
       <c r="I52" s="11">
-        <v>25906948</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>25250256</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15">
-        <v>0</v>
+        <v>503948132</v>
       </c>
       <c r="F53" s="15">
-        <v>503948132</v>
+        <v>587370133</v>
       </c>
       <c r="G53" s="15">
-        <v>587370133</v>
+        <v>597761515</v>
       </c>
       <c r="H53" s="15">
-        <v>597761515</v>
+        <v>584240963</v>
       </c>
       <c r="I53" s="15">
-        <v>584240963</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>585335380</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1635,7 +1635,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1645,7 +1645,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1655,7 +1655,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>34</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1687,7 +1687,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>24</v>
       </c>
@@ -1704,14 +1704,14 @@
       <c r="G59" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H59" s="9" t="s">
-        <v>26</v>
+      <c r="H59" s="9">
+        <v>34321</v>
       </c>
       <c r="I59" s="9">
-        <v>34321</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>100783</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>27</v>
       </c>
@@ -1719,23 +1719,23 @@
         <v>28</v>
       </c>
       <c r="D60" s="11"/>
-      <c r="E60" s="11" t="s">
-        <v>26</v>
+      <c r="E60" s="11">
+        <v>81765000</v>
       </c>
       <c r="F60" s="11">
-        <v>81765000</v>
+        <v>292685500</v>
       </c>
       <c r="G60" s="11">
-        <v>292685500</v>
+        <v>362112400</v>
       </c>
       <c r="H60" s="11">
-        <v>362112400</v>
+        <v>330716300</v>
       </c>
       <c r="I60" s="11">
-        <v>330716300</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>357280594</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>29</v>
       </c>
@@ -1743,23 +1743,23 @@
         <v>30</v>
       </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
-        <v>26</v>
+      <c r="E61" s="9">
+        <v>72975</v>
       </c>
       <c r="F61" s="9">
-        <v>72975</v>
+        <v>53063</v>
       </c>
       <c r="G61" s="9">
-        <v>53063</v>
+        <v>70494</v>
       </c>
       <c r="H61" s="9">
-        <v>70494</v>
+        <v>26330</v>
       </c>
       <c r="I61" s="9">
-        <v>26330</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9092</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>31</v>
       </c>
@@ -1767,45 +1767,45 @@
         <v>28</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>26</v>
+      <c r="E62" s="11">
+        <v>29957775</v>
       </c>
       <c r="F62" s="11">
-        <v>29957775</v>
+        <v>24310161</v>
       </c>
       <c r="G62" s="11">
-        <v>24310161</v>
+        <v>16083697</v>
       </c>
       <c r="H62" s="11">
-        <v>16083697</v>
+        <v>19411637</v>
       </c>
       <c r="I62" s="11">
-        <v>19411637</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>29560793</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15">
-        <v>0</v>
+        <v>111795750</v>
       </c>
       <c r="F63" s="15">
-        <v>111795750</v>
+        <v>317048724</v>
       </c>
       <c r="G63" s="15">
-        <v>317048724</v>
+        <v>378266591</v>
       </c>
       <c r="H63" s="15">
-        <v>378266591</v>
+        <v>350188588</v>
       </c>
       <c r="I63" s="15">
-        <v>350188588</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>386951262</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1815,7 +1815,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1825,7 +1825,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1835,7 +1835,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>35</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1867,7 +1867,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>24</v>
       </c>
@@ -1884,14 +1884,14 @@
       <c r="G69" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H69" s="9" t="s">
-        <v>26</v>
+      <c r="H69" s="9">
+        <v>7462</v>
       </c>
       <c r="I69" s="9">
-        <v>7462</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>27</v>
       </c>
@@ -1899,23 +1899,23 @@
         <v>36</v>
       </c>
       <c r="D70" s="11"/>
-      <c r="E70" s="11" t="s">
-        <v>26</v>
+      <c r="E70" s="11">
+        <v>140751</v>
       </c>
       <c r="F70" s="11">
-        <v>140751</v>
+        <v>29372</v>
       </c>
       <c r="G70" s="11">
-        <v>29372</v>
+        <v>107015</v>
       </c>
       <c r="H70" s="11">
-        <v>107015</v>
+        <v>572244</v>
       </c>
       <c r="I70" s="11">
-        <v>572244</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>677607</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>29</v>
       </c>
@@ -1923,23 +1923,23 @@
         <v>36</v>
       </c>
       <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
-        <v>26</v>
+      <c r="E71" s="9">
+        <v>2350</v>
       </c>
       <c r="F71" s="9">
-        <v>2350</v>
+        <v>3774</v>
       </c>
       <c r="G71" s="9">
-        <v>3774</v>
+        <v>5236</v>
       </c>
       <c r="H71" s="9">
-        <v>5236</v>
+        <v>4857</v>
       </c>
       <c r="I71" s="9">
-        <v>4857</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23249</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>31</v>
       </c>
@@ -1947,45 +1947,45 @@
         <v>36</v>
       </c>
       <c r="D72" s="11"/>
-      <c r="E72" s="11" t="s">
-        <v>26</v>
+      <c r="E72" s="11">
+        <v>14815</v>
       </c>
       <c r="F72" s="11">
-        <v>14815</v>
+        <v>12547</v>
       </c>
       <c r="G72" s="11">
-        <v>12547</v>
+        <v>14482</v>
       </c>
       <c r="H72" s="11">
-        <v>14482</v>
+        <v>17271</v>
       </c>
       <c r="I72" s="11">
-        <v>17271</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36904</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15">
-        <v>0</v>
+        <v>157916</v>
       </c>
       <c r="F73" s="15">
-        <v>157916</v>
+        <v>45693</v>
       </c>
       <c r="G73" s="15">
-        <v>45693</v>
+        <v>126733</v>
       </c>
       <c r="H73" s="15">
-        <v>126733</v>
+        <v>601834</v>
       </c>
       <c r="I73" s="15">
-        <v>601834</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>741323</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1995,7 +1995,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2005,7 +2005,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2015,7 +2015,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>37</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2047,7 +2047,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>24</v>
       </c>
@@ -2064,14 +2064,14 @@
       <c r="G79" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H79" s="9" t="s">
-        <v>26</v>
+      <c r="H79" s="9">
+        <v>18116</v>
       </c>
       <c r="I79" s="9">
-        <v>18116</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33351</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>27</v>
       </c>
@@ -2079,23 +2079,23 @@
         <v>36</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11" t="s">
-        <v>26</v>
+      <c r="E80" s="11">
+        <v>40705</v>
       </c>
       <c r="F80" s="11">
-        <v>40705</v>
+        <v>280761</v>
       </c>
       <c r="G80" s="11">
-        <v>280761</v>
+        <v>841166</v>
       </c>
       <c r="H80" s="11">
-        <v>841166</v>
+        <v>1180238</v>
       </c>
       <c r="I80" s="11">
-        <v>1180238</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1509313</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>29</v>
       </c>
@@ -2103,23 +2103,23 @@
         <v>36</v>
       </c>
       <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
-        <v>26</v>
+      <c r="E81" s="9">
+        <v>10122</v>
       </c>
       <c r="F81" s="9">
-        <v>10122</v>
+        <v>16827</v>
       </c>
       <c r="G81" s="9">
-        <v>16827</v>
+        <v>31730</v>
       </c>
       <c r="H81" s="9">
-        <v>31730</v>
+        <v>35884</v>
       </c>
       <c r="I81" s="9">
-        <v>35884</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>31</v>
       </c>
@@ -2127,45 +2127,45 @@
         <v>36</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
-        <v>26</v>
+      <c r="E82" s="11">
+        <v>4640</v>
       </c>
       <c r="F82" s="11">
-        <v>4640</v>
+        <v>21425</v>
       </c>
       <c r="G82" s="11">
-        <v>21425</v>
+        <v>24451</v>
       </c>
       <c r="H82" s="11">
-        <v>24451</v>
+        <v>61178</v>
       </c>
       <c r="I82" s="11">
-        <v>61178</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>100579</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
-        <v>0</v>
+        <v>55467</v>
       </c>
       <c r="F83" s="15">
-        <v>55467</v>
+        <v>319013</v>
       </c>
       <c r="G83" s="15">
-        <v>319013</v>
+        <v>897347</v>
       </c>
       <c r="H83" s="15">
-        <v>897347</v>
+        <v>1295416</v>
       </c>
       <c r="I83" s="15">
-        <v>1295416</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1646855</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2175,7 +2175,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2185,7 +2185,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2195,7 +2195,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>38</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2227,7 +2227,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>24</v>
       </c>
@@ -2244,14 +2244,14 @@
       <c r="G89" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H89" s="9" t="s">
-        <v>26</v>
+      <c r="H89" s="9">
+        <v>22061</v>
       </c>
       <c r="I89" s="9">
-        <v>22061</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>30304</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>27</v>
       </c>
@@ -2259,23 +2259,23 @@
         <v>36</v>
       </c>
       <c r="D90" s="11"/>
-      <c r="E90" s="11" t="s">
-        <v>26</v>
+      <c r="E90" s="11">
+        <v>152083</v>
       </c>
       <c r="F90" s="11">
-        <v>152083</v>
+        <v>199807</v>
       </c>
       <c r="G90" s="11">
-        <v>199807</v>
+        <v>375976</v>
       </c>
       <c r="H90" s="11">
-        <v>375976</v>
+        <v>1074874</v>
       </c>
       <c r="I90" s="11">
-        <v>1074874</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1246855</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>29</v>
       </c>
@@ -2283,23 +2283,23 @@
         <v>36</v>
       </c>
       <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
-        <v>26</v>
+      <c r="E91" s="9">
+        <v>8699</v>
       </c>
       <c r="F91" s="9">
-        <v>8699</v>
+        <v>15365</v>
       </c>
       <c r="G91" s="9">
-        <v>15365</v>
+        <v>24646</v>
       </c>
       <c r="H91" s="9">
-        <v>24646</v>
+        <v>17492</v>
       </c>
       <c r="I91" s="9">
-        <v>17492</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18122</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>31</v>
       </c>
@@ -2307,45 +2307,45 @@
         <v>36</v>
       </c>
       <c r="D92" s="11"/>
-      <c r="E92" s="11" t="s">
-        <v>26</v>
+      <c r="E92" s="11">
+        <v>6908</v>
       </c>
       <c r="F92" s="11">
-        <v>6908</v>
+        <v>19490</v>
       </c>
       <c r="G92" s="11">
-        <v>19490</v>
+        <v>21571</v>
       </c>
       <c r="H92" s="11">
-        <v>21571</v>
+        <v>41545</v>
       </c>
       <c r="I92" s="11">
-        <v>41545</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>51636</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
-        <v>0</v>
+        <v>167690</v>
       </c>
       <c r="F93" s="15">
-        <v>167690</v>
+        <v>234662</v>
       </c>
       <c r="G93" s="15">
-        <v>234662</v>
+        <v>422193</v>
       </c>
       <c r="H93" s="15">
-        <v>422193</v>
+        <v>1155972</v>
       </c>
       <c r="I93" s="15">
-        <v>1155972</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1346917</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2355,7 +2355,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2365,7 +2365,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2375,7 +2375,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>39</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2407,7 +2407,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>24</v>
       </c>
@@ -2424,14 +2424,14 @@
       <c r="G99" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H99" s="9" t="s">
-        <v>26</v>
+      <c r="H99" s="9">
+        <v>3517</v>
       </c>
       <c r="I99" s="9">
-        <v>3517</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6610</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>27</v>
       </c>
@@ -2439,23 +2439,23 @@
         <v>36</v>
       </c>
       <c r="D100" s="11"/>
-      <c r="E100" s="11" t="s">
-        <v>26</v>
+      <c r="E100" s="11">
+        <v>29373</v>
       </c>
       <c r="F100" s="11">
-        <v>29373</v>
+        <v>110326</v>
       </c>
       <c r="G100" s="11">
-        <v>110326</v>
+        <v>572205</v>
       </c>
       <c r="H100" s="11">
-        <v>572205</v>
+        <v>677608</v>
       </c>
       <c r="I100" s="11">
-        <v>677608</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>940065</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>29</v>
       </c>
@@ -2463,23 +2463,23 @@
         <v>36</v>
       </c>
       <c r="D101" s="9"/>
-      <c r="E101" s="9" t="s">
-        <v>26</v>
+      <c r="E101" s="9">
+        <v>3773</v>
       </c>
       <c r="F101" s="9">
-        <v>3773</v>
+        <v>5236</v>
       </c>
       <c r="G101" s="9">
-        <v>5236</v>
+        <v>12320</v>
       </c>
       <c r="H101" s="9">
-        <v>12320</v>
+        <v>23249</v>
       </c>
       <c r="I101" s="9">
-        <v>23249</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8739</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>31</v>
       </c>
@@ -2487,45 +2487,45 @@
         <v>36</v>
       </c>
       <c r="D102" s="11"/>
-      <c r="E102" s="11" t="s">
-        <v>26</v>
+      <c r="E102" s="11">
+        <v>12547</v>
       </c>
       <c r="F102" s="11">
-        <v>12547</v>
+        <v>14482</v>
       </c>
       <c r="G102" s="11">
-        <v>14482</v>
+        <v>17362</v>
       </c>
       <c r="H102" s="11">
-        <v>17362</v>
+        <v>36904</v>
       </c>
       <c r="I102" s="11">
-        <v>36904</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>85847</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15">
-        <v>0</v>
+        <v>45693</v>
       </c>
       <c r="F103" s="15">
-        <v>45693</v>
+        <v>130044</v>
       </c>
       <c r="G103" s="15">
-        <v>130044</v>
+        <v>601887</v>
       </c>
       <c r="H103" s="15">
-        <v>601887</v>
+        <v>741278</v>
       </c>
       <c r="I103" s="15">
-        <v>741278</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1041261</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2535,7 +2535,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2545,7 +2545,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2555,7 +2555,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>40</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2587,7 +2587,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>24</v>
       </c>
@@ -2604,14 +2604,14 @@
       <c r="G109" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H109" s="9" t="s">
-        <v>26</v>
+      <c r="H109" s="9">
+        <v>117432</v>
       </c>
       <c r="I109" s="9">
-        <v>117432</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>100491</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>27</v>
       </c>
@@ -2619,23 +2619,23 @@
         <v>42</v>
       </c>
       <c r="D110" s="11"/>
-      <c r="E110" s="11" t="s">
-        <v>26</v>
+      <c r="E110" s="11">
+        <v>318</v>
       </c>
       <c r="F110" s="11">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="G110" s="11">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="H110" s="11">
-        <v>366</v>
+        <v>1615</v>
       </c>
       <c r="I110" s="11">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>29</v>
       </c>
@@ -2643,23 +2643,23 @@
         <v>43</v>
       </c>
       <c r="D111" s="9"/>
-      <c r="E111" s="9" t="s">
-        <v>26</v>
+      <c r="E111" s="9">
+        <v>41829</v>
       </c>
       <c r="F111" s="9">
-        <v>41829</v>
+        <v>51716</v>
       </c>
       <c r="G111" s="9">
-        <v>51716</v>
+        <v>98675</v>
       </c>
       <c r="H111" s="9">
-        <v>98675</v>
+        <v>698748</v>
       </c>
       <c r="I111" s="9">
-        <v>698748</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>882985</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>31</v>
       </c>
@@ -2667,23 +2667,23 @@
         <v>42</v>
       </c>
       <c r="D112" s="11"/>
-      <c r="E112" s="11" t="s">
-        <v>26</v>
+      <c r="E112" s="11">
+        <v>377</v>
       </c>
       <c r="F112" s="11">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="G112" s="11">
-        <v>419</v>
+        <v>596</v>
       </c>
       <c r="H112" s="11">
-        <v>596</v>
+        <v>1081</v>
       </c>
       <c r="I112" s="11">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2693,7 +2693,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2703,7 +2703,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2713,7 +2713,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B116" s="7" t="s">
         <v>44</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2745,7 +2745,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>24</v>
       </c>
@@ -2762,14 +2762,14 @@
       <c r="G118" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H118" s="9" t="s">
-        <v>26</v>
+      <c r="H118" s="9">
+        <v>117832</v>
       </c>
       <c r="I118" s="9">
-        <v>117832</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>135891</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>27</v>
       </c>
@@ -2777,23 +2777,23 @@
         <v>42</v>
       </c>
       <c r="D119" s="11"/>
-      <c r="E119" s="11" t="s">
-        <v>26</v>
+      <c r="E119" s="11">
+        <v>331</v>
       </c>
       <c r="F119" s="11">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="G119" s="11">
-        <v>363</v>
+        <v>1310</v>
       </c>
       <c r="H119" s="11">
-        <v>1310</v>
+        <v>2208</v>
       </c>
       <c r="I119" s="11">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>29</v>
       </c>
@@ -2801,23 +2801,23 @@
         <v>43</v>
       </c>
       <c r="D120" s="9"/>
-      <c r="E120" s="9" t="s">
-        <v>26</v>
+      <c r="E120" s="9">
+        <v>51641</v>
       </c>
       <c r="F120" s="9">
-        <v>51641</v>
+        <v>90270</v>
       </c>
       <c r="G120" s="9">
-        <v>90270</v>
+        <v>142509</v>
       </c>
       <c r="H120" s="9">
-        <v>142509</v>
+        <v>872093</v>
       </c>
       <c r="I120" s="9">
-        <v>872093</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1099878</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>31</v>
       </c>
@@ -2825,23 +2825,23 @@
         <v>42</v>
       </c>
       <c r="D121" s="11"/>
-      <c r="E121" s="11" t="s">
-        <v>26</v>
+      <c r="E121" s="11">
+        <v>440</v>
       </c>
       <c r="F121" s="11">
-        <v>440</v>
+        <v>1177</v>
       </c>
       <c r="G121" s="11">
-        <v>1177</v>
+        <v>1468</v>
       </c>
       <c r="H121" s="11">
-        <v>1468</v>
+        <v>2085</v>
       </c>
       <c r="I121" s="11">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2851,7 +2851,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2861,7 +2861,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2871,7 +2871,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>45</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -2903,7 +2903,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>24</v>
       </c>
@@ -2920,14 +2920,14 @@
       <c r="G127" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H127" s="9" t="s">
-        <v>26</v>
+      <c r="H127" s="9">
+        <v>120574</v>
       </c>
       <c r="I127" s="9">
-        <v>120574</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>168265</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>27</v>
       </c>
@@ -2935,23 +2935,23 @@
         <v>42</v>
       </c>
       <c r="D128" s="11"/>
-      <c r="E128" s="11" t="s">
-        <v>26</v>
+      <c r="E128" s="11">
+        <v>314</v>
       </c>
       <c r="F128" s="11">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="G128" s="11">
-        <v>355</v>
+        <v>657</v>
       </c>
       <c r="H128" s="11">
-        <v>657</v>
+        <v>1926</v>
       </c>
       <c r="I128" s="11">
-        <v>1926</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>29</v>
       </c>
@@ -2959,23 +2959,23 @@
         <v>43</v>
       </c>
       <c r="D129" s="9"/>
-      <c r="E129" s="9" t="s">
-        <v>26</v>
+      <c r="E129" s="9">
+        <v>48540</v>
       </c>
       <c r="F129" s="9">
-        <v>48540</v>
+        <v>74472</v>
       </c>
       <c r="G129" s="9">
-        <v>74472</v>
+        <v>120095</v>
       </c>
       <c r="H129" s="9">
-        <v>120095</v>
+        <v>803565</v>
       </c>
       <c r="I129" s="9">
-        <v>803565</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+        <v>883052</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>31</v>
       </c>
@@ -2983,23 +2983,23 @@
         <v>42</v>
       </c>
       <c r="D130" s="11"/>
-      <c r="E130" s="11" t="s">
-        <v>26</v>
+      <c r="E130" s="11">
+        <v>348</v>
       </c>
       <c r="F130" s="11">
-        <v>348</v>
+        <v>817</v>
       </c>
       <c r="G130" s="11">
-        <v>817</v>
+        <v>867</v>
       </c>
       <c r="H130" s="11">
-        <v>867</v>
+        <v>1604</v>
       </c>
       <c r="I130" s="11">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3009,7 +3009,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3019,7 +3019,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3029,7 +3029,7 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B134" s="7" t="s">
         <v>46</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -3061,7 +3061,7 @@
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>24</v>
       </c>
@@ -3078,14 +3078,14 @@
       <c r="G136" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H136" s="9" t="s">
-        <v>26</v>
+      <c r="H136" s="9">
+        <v>102474</v>
       </c>
       <c r="I136" s="9">
-        <v>102474</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+        <v>65586</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>27</v>
       </c>
@@ -3093,23 +3093,23 @@
         <v>28</v>
       </c>
       <c r="D137" s="11"/>
-      <c r="E137" s="11" t="s">
-        <v>26</v>
+      <c r="E137" s="11">
+        <v>359</v>
       </c>
       <c r="F137" s="11">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="G137" s="11">
-        <v>377</v>
+        <v>1580</v>
       </c>
       <c r="H137" s="11">
-        <v>1580</v>
+        <v>2049</v>
       </c>
       <c r="I137" s="11">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
         <v>29</v>
       </c>
@@ -3117,23 +3117,23 @@
         <v>30</v>
       </c>
       <c r="D138" s="9"/>
-      <c r="E138" s="9" t="s">
-        <v>26</v>
+      <c r="E138" s="9">
+        <v>51703</v>
       </c>
       <c r="F138" s="9">
-        <v>51703</v>
+        <v>98675</v>
       </c>
       <c r="G138" s="9">
-        <v>98675</v>
+        <v>174767</v>
       </c>
       <c r="H138" s="9">
-        <v>174767</v>
+        <v>882985</v>
       </c>
       <c r="I138" s="9">
-        <v>882985</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+        <v>961175</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>31</v>
       </c>
@@ -3141,23 +3141,23 @@
         <v>28</v>
       </c>
       <c r="D139" s="11"/>
-      <c r="E139" s="11" t="s">
-        <v>26</v>
+      <c r="E139" s="11">
+        <v>419</v>
       </c>
       <c r="F139" s="11">
-        <v>419</v>
+        <v>596</v>
       </c>
       <c r="G139" s="11">
-        <v>596</v>
+        <v>1079</v>
       </c>
       <c r="H139" s="11">
-        <v>1079</v>
+        <v>1901</v>
       </c>
       <c r="I139" s="11">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3167,7 +3167,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3177,7 +3177,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3187,7 +3187,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
         <v>47</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3219,7 +3219,7 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>48</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>49</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>50</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>51</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>52</v>
       </c>
@@ -3329,73 +3329,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
       <c r="E150" s="11">
-        <v>5469</v>
+        <v>6460</v>
       </c>
       <c r="F150" s="11">
-        <v>6460</v>
+        <v>8743</v>
       </c>
       <c r="G150" s="11">
-        <v>8743</v>
+        <v>8249</v>
       </c>
       <c r="H150" s="11">
-        <v>8249</v>
+        <v>11151</v>
       </c>
       <c r="I150" s="11">
-        <v>11151</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13497</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9">
-        <v>32047</v>
+        <v>31378</v>
       </c>
       <c r="F151" s="9">
-        <v>31378</v>
+        <v>29965</v>
       </c>
       <c r="G151" s="9">
-        <v>29965</v>
+        <v>30931</v>
       </c>
       <c r="H151" s="9">
-        <v>30931</v>
+        <v>42112</v>
       </c>
       <c r="I151" s="9">
-        <v>42112</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+        <v>57459</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
       <c r="E152" s="11">
-        <v>57504</v>
+        <v>64619</v>
       </c>
       <c r="F152" s="11">
-        <v>64619</v>
+        <v>94496</v>
       </c>
       <c r="G152" s="11">
-        <v>94496</v>
+        <v>121990</v>
       </c>
       <c r="H152" s="11">
-        <v>121990</v>
+        <v>169145</v>
       </c>
       <c r="I152" s="11">
-        <v>169145</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+        <v>255157</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>56</v>
       </c>
@@ -3417,51 +3417,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
       <c r="E154" s="11">
-        <v>17304</v>
+        <v>20688</v>
       </c>
       <c r="F154" s="11">
-        <v>20688</v>
+        <v>27367</v>
       </c>
       <c r="G154" s="11">
-        <v>27367</v>
+        <v>49725</v>
       </c>
       <c r="H154" s="11">
-        <v>49725</v>
+        <v>98863</v>
       </c>
       <c r="I154" s="11">
-        <v>98863</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+        <v>144917</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C155" s="15"/>
       <c r="D155" s="15"/>
       <c r="E155" s="15">
-        <v>112324</v>
+        <v>123145</v>
       </c>
       <c r="F155" s="15">
-        <v>123145</v>
+        <v>160571</v>
       </c>
       <c r="G155" s="15">
-        <v>160571</v>
+        <v>210895</v>
       </c>
       <c r="H155" s="15">
-        <v>210895</v>
+        <v>321271</v>
       </c>
       <c r="I155" s="15">
-        <v>321271</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>471030</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B159" s="7" t="s">
         <v>58</v>
       </c>
@@ -3470,7 +3470,7 @@
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>59</v>
       </c>
